--- a/MainTop/17.08.2024/ozon max/бирки.xlsx
+++ b/MainTop/17.08.2024/ozon max/бирки.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
   <si>
     <t xml:space="preserve">Название</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">поставка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Num_Copies60cm</t>
   </si>
   <si>
     <t xml:space="preserve">Num_Copies</t>
@@ -264,20 +267,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="P17" activeCellId="0" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="4" style="0" width="9.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="14" style="0" width="9.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="15" style="0" width="9.32"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -312,13 +316,16 @@
       <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>122</v>
@@ -330,13 +337,13 @@
         <v>17.38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>21.11</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" s="2" t="n">
         <f aca="false">ROUND(D2*J2,0)</f>
@@ -356,13 +363,16 @@
         <f aca="false">M2*2</f>
         <v>100</v>
       </c>
+      <c r="O2" s="2" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>102</v>
@@ -374,13 +384,13 @@
         <v>21.16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>34.96</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" s="2" t="n">
         <f aca="false">ROUND(D3*J3,0)</f>
@@ -400,13 +410,16 @@
         <f aca="false">M3*2</f>
         <v>80</v>
       </c>
+      <c r="O3" s="2" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>309</v>
@@ -418,13 +431,13 @@
         <v>121.18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>82.82</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I4" s="2" t="n">
         <f aca="false">ROUND(D4*J4,0)</f>
@@ -444,13 +457,16 @@
         <f aca="false">M4*2</f>
         <v>40</v>
       </c>
+      <c r="O4" s="2" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>490</v>
@@ -462,13 +478,13 @@
         <v>197.58</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>119.28</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I5" s="2" t="n">
         <f aca="false">ROUND(D5*J5,0)</f>
@@ -488,13 +504,16 @@
         <f aca="false">M5*2</f>
         <v>40</v>
       </c>
+      <c r="O5" s="2" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>475</v>
@@ -506,13 +525,13 @@
         <v>291.41</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>208.09</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I6" s="2" t="n">
         <f aca="false">ROUND(D6*J6,0)</f>
@@ -532,13 +551,16 @@
         <f aca="false">M6*2</f>
         <v>30</v>
       </c>
+      <c r="O6" s="2" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>162</v>
@@ -550,13 +572,13 @@
         <v>118.25</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>107.62</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I7" s="2" t="n">
         <f aca="false">ROUND(D7*J7,0)</f>
@@ -576,13 +598,16 @@
         <f aca="false">M7*2</f>
         <v>30</v>
       </c>
+      <c r="O7" s="2" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>233</v>
@@ -594,13 +619,13 @@
         <v>175.19</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>143.94</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8" s="2" t="n">
         <f aca="false">ROUND(D8*J8,0)</f>
@@ -620,13 +645,16 @@
         <f aca="false">M8*2</f>
         <v>20</v>
       </c>
+      <c r="O8" s="2" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>240</v>
@@ -638,13 +666,13 @@
         <v>205.13</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>146.74</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I9" s="2" t="n">
         <f aca="false">ROUND(D9*J9,0)</f>
@@ -664,13 +692,16 @@
         <f aca="false">M9*2</f>
         <v>20</v>
       </c>
+      <c r="O9" s="2" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>208</v>
@@ -682,13 +713,13 @@
         <v>244.71</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>182.75</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I10" s="2" t="n">
         <f aca="false">ROUND(D10*J10,0)</f>
@@ -708,13 +739,16 @@
         <f aca="false">M10*2</f>
         <v>20</v>
       </c>
+      <c r="O10" s="2" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>244</v>
@@ -726,13 +760,13 @@
         <v>325.33</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>250.69</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I11" s="2" t="n">
         <f aca="false">ROUND(D11*J11,0)</f>
@@ -752,13 +786,16 @@
         <f aca="false">M11*2</f>
         <v>8</v>
       </c>
+      <c r="O11" s="2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>64</v>
@@ -770,13 +807,13 @@
         <v>91.43</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>46.93</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I12" s="2" t="n">
         <f aca="false">ROUND(D12*J12,0)</f>
@@ -796,13 +833,16 @@
         <f aca="false">M12*2</f>
         <v>8</v>
       </c>
+      <c r="O12" s="2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>58</v>
@@ -814,13 +854,13 @@
         <v>82.86</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>46.93</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I13" s="2" t="n">
         <f aca="false">ROUND(D13*J13,0)</f>
@@ -840,13 +880,16 @@
         <f aca="false">M13*2</f>
         <v>8</v>
       </c>
+      <c r="O13" s="2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>80</v>
@@ -858,13 +901,13 @@
         <v>137.93</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>81.2</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I14" s="2" t="n">
         <f aca="false">ROUND(D14*J14,0)</f>
@@ -884,13 +927,16 @@
         <f aca="false">M14*2</f>
         <v>8</v>
       </c>
+      <c r="O14" s="2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>68</v>
@@ -902,13 +948,13 @@
         <v>340</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>166.08</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I15" s="2" t="n">
         <f aca="false">ROUND(D15*J15,0)</f>
@@ -926,6 +972,9 @@
       <c r="N15" s="2" t="n">
         <f aca="false">M15*2</f>
         <v>8</v>
+      </c>
+      <c r="O15" s="2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -938,6 +987,14 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3" t="n">
         <f aca="false">SUM(M2:M15)</f>
+        <v>210</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <f aca="false">SUM(N2:N15)</f>
+        <v>420</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <f aca="false">SUM(O2:O15)</f>
         <v>210</v>
       </c>
     </row>

--- a/MainTop/17.08.2024/ozon max/бирки.xlsx
+++ b/MainTop/17.08.2024/ozon max/бирки.xlsx
@@ -49,115 +49,114 @@
     <t xml:space="preserve">поставка</t>
   </si>
   <si>
-    <t xml:space="preserve">Num_Copies60cm</t>
-  </si>
-  <si>
     <t xml:space="preserve">Num_Copies</t>
   </si>
   <si>
+    <t xml:space="preserve">Num_Copies30cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки для подписи и маркировки детской одежды в детский сад, школы и лагеря, именные наклейки, термостикеры, стикеры, бирки. Единороги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Единороги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хорошая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки для подписи и маркировки детской одежды в детский сад, школы и лагеря, именные наклейки, термостикеры, стикеры, бирки. Котики</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Котята</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Средняя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки для подписи и маркировки детской одежды в детский сад, школы и лагеря, именные наклейки, термостикеры, стикеры, бирки. Чип и Дейл, Дисней</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Дисней мальчики</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Критическая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки для подписи и маркировки детской одежды в детский сад, школы. Именные наклейки, термостикеры, стикеры, бирки. Дисней девочки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Дисней девочки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки для подписи и маркировки детской одежды в детский сад, школы и лагеря, именные наклейки, термостикеры, стикеры, бирки. Майнкрафт, Minecraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Майнкрафт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки для подписи и маркировки детской одежды в детский сад, школы и лагеря, именные наклейки, термостикеры, стикеры, бирки. Транспорт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Транспорт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Плохая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки для подписи и маркировки детской одежды в детский сад, школы и лагеря, именные наклейки, термостикеры, стикеры, бирки. Человек-Паук Spiderman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Человек-Паук</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки для подписи и маркировки детской одежды в детский сад, школы и лагеря, именные наклейки, термостикеры, стикеры, бирки. Щенячий патруль, Paw Patrol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Щенячий патруль</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки для подписи и маркировки детской одежды в детский сад, школы и лагеря, именные наклейки, термостикеры, стикеры, бирки. Спанч Боб, Соник ежик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Спанч боб, Соник ежик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки для подписи и маркировки детской одежды в детский сад, школы и лагеря, именные наклейки, термостикеры, стикеры, бирки. Pixar Disney Пиксар Дисней</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Пиксар Дисней</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки для подписи и маркировки детской одежды в детский сад, школы и лагеря, именные наклейки, термостикеры, стикеры, бирки. Леди Баг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Леди Баг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки для подписи и маркировки детской одежды в детский сад, именные наклейки, термостикеры, стикеры, бирки. хаги ваги, амонг ас</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Хаги Ваги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки для подписи и маркировки детской одежды в детский сад, школы и лагеря, именные наклейки, термостикеры, стикеры, бирки. Гарри Поттер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Гарри Поттер</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термобирки для подписи и маркировки детской одежды в детский сад, школы и лагеря, именные наклейки, термостикеры, стикеры, бирки. Белые</t>
   </si>
   <si>
     <t xml:space="preserve">Термобирки белые 30шт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Хорошая</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки для подписи и маркировки детской одежды в детский сад, школы и лагеря, именные наклейки, термостикеры, стикеры, бирки. Единороги</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки Единороги</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки для подписи и маркировки детской одежды в детский сад, школы и лагеря, именные наклейки, термостикеры, стикеры, бирки. Котики</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки Котята</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Средняя</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки для подписи и маркировки детской одежды в детский сад, школы и лагеря, именные наклейки, термостикеры, стикеры, бирки. Чип и Дейл, Дисней</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки Дисней мальчики</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Критическая</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки для подписи и маркировки детской одежды в детский сад, школы. Именные наклейки, термостикеры, стикеры, бирки. Дисней девочки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки Дисней девочки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки для подписи и маркировки детской одежды в детский сад, школы и лагеря, именные наклейки, термостикеры, стикеры, бирки. Майнкрафт, Minecraft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки Майнкрафт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки для подписи и маркировки детской одежды в детский сад, школы и лагеря, именные наклейки, термостикеры, стикеры, бирки. Транспорт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки Транспорт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Плохая</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки для подписи и маркировки детской одежды в детский сад, школы и лагеря, именные наклейки, термостикеры, стикеры, бирки. Человек-Паук Spiderman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки Человек-Паук</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки для подписи и маркировки детской одежды в детский сад, школы и лагеря, именные наклейки, термостикеры, стикеры, бирки. Щенячий патруль, Paw Patrol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки Щенячий патруль</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки для подписи и маркировки детской одежды в детский сад, школы и лагеря, именные наклейки, термостикеры, стикеры, бирки. Спанч Боб, Соник ежик</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки Спанч боб, Соник ежик</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки для подписи и маркировки детской одежды в детский сад, школы и лагеря, именные наклейки, термостикеры, стикеры, бирки. Pixar Disney Пиксар Дисней</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки Пиксар Дисней</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки для подписи и маркировки детской одежды в детский сад, школы и лагеря, именные наклейки, термостикеры, стикеры, бирки. Леди Баг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки Леди Баг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки для подписи и маркировки детской одежды в детский сад, именные наклейки, термостикеры, стикеры, бирки. хаги ваги, амонг ас</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки Хаги Ваги</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки для подписи и маркировки детской одежды в детский сад, школы и лагеря, именные наклейки, термостикеры, стикеры, бирки. Гарри Поттер</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки Гарри Поттер</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -246,7 +245,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -267,10 +266,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P17" activeCellId="0" sqref="P17"/>
+      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -328,43 +327,43 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>7.02</v>
+        <v>4.82</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>17.38</v>
+        <v>21.16</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>21.11</v>
+        <v>34.96</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="2" t="n">
         <f aca="false">ROUND(D2*J2,0)</f>
-        <v>211</v>
+        <v>145</v>
       </c>
       <c r="J2" s="2" t="n">
         <v>30</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="M2" s="2" t="n">
         <f aca="false">L2/4</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N2" s="2" t="n">
         <f aca="false">M2*2</f>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -375,73 +374,73 @@
         <v>15</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>102</v>
+        <v>309</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>4.82</v>
+        <v>2.55</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>21.16</v>
+        <v>121.18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>34.96</v>
+        <v>82.82</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I3" s="2" t="n">
         <f aca="false">ROUND(D3*J3,0)</f>
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="J3" s="2" t="n">
         <v>30</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="M3" s="2" t="n">
         <f aca="false">L3/4</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N3" s="2" t="n">
         <f aca="false">M3*2</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>309</v>
+        <v>490</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>121.18</v>
+        <v>197.58</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>82.82</v>
+        <v>119.28</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I4" s="2" t="n">
         <f aca="false">ROUND(D4*J4,0)</f>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J4" s="2" t="n">
         <v>30</v>
@@ -463,49 +462,49 @@
     </row>
     <row r="5" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>475</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>291.41</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>490</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>197.58</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="G5" s="2" t="n">
-        <v>119.28</v>
+        <v>208.09</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" s="2" t="n">
         <f aca="false">ROUND(D5*J5,0)</f>
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="J5" s="2" t="n">
         <v>30</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="M5" s="2" t="n">
         <f aca="false">L5/4</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N5" s="2" t="n">
         <f aca="false">M5*2</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -516,26 +515,26 @@
         <v>23</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>475</v>
+        <v>162</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1.63</v>
+        <v>1.37</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>291.41</v>
+        <v>118.25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>208.09</v>
+        <v>107.62</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I6" s="2" t="n">
         <f aca="false">ROUND(D6*J6,0)</f>
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J6" s="2" t="n">
         <v>30</v>
@@ -563,73 +562,73 @@
         <v>25</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>162</v>
+        <v>233</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>118.25</v>
+        <v>175.19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>107.62</v>
+        <v>143.94</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I7" s="2" t="n">
         <f aca="false">ROUND(D7*J7,0)</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J7" s="2" t="n">
         <v>30</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="M7" s="2" t="n">
         <f aca="false">L7/4</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N7" s="2" t="n">
         <f aca="false">M7*2</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>175.19</v>
+        <v>205.13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>143.94</v>
+        <v>146.74</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="2" t="n">
         <f aca="false">ROUND(D8*J8,0)</f>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J8" s="2" t="n">
         <v>30</v>
@@ -657,26 +656,26 @@
         <v>30</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>1.17</v>
+        <v>0.85</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>205.13</v>
+        <v>244.71</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>146.74</v>
+        <v>182.75</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I9" s="2" t="n">
         <f aca="false">ROUND(D9*J9,0)</f>
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J9" s="2" t="n">
         <v>30</v>
@@ -704,43 +703,43 @@
         <v>32</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>244.71</v>
+        <v>325.33</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>182.75</v>
+        <v>250.69</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I10" s="2" t="n">
         <f aca="false">ROUND(D10*J10,0)</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J10" s="2" t="n">
         <v>30</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M10" s="2" t="n">
         <f aca="false">L10/4</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N10" s="2" t="n">
         <f aca="false">M10*2</f>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -751,26 +750,26 @@
         <v>34</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>244</v>
+        <v>64</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>325.33</v>
+        <v>91.43</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>250.69</v>
+        <v>46.93</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I11" s="2" t="n">
         <f aca="false">ROUND(D11*J11,0)</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J11" s="2" t="n">
         <v>30</v>
@@ -798,16 +797,16 @@
         <v>36</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0.7</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>91.43</v>
+        <v>82.86</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>46.93</v>
@@ -845,26 +844,26 @@
         <v>38</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.7</v>
+        <v>0.58</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>82.86</v>
+        <v>137.93</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>46.93</v>
+        <v>81.2</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I13" s="2" t="n">
         <f aca="false">ROUND(D13*J13,0)</f>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J13" s="2" t="n">
         <v>30</v>
@@ -892,35 +891,34 @@
         <v>40</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.58</v>
+        <v>0.2</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>137.93</v>
+        <v>340</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>81.2</v>
+        <v>166.08</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I14" s="2" t="n">
         <f aca="false">ROUND(D14*J14,0)</f>
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J14" s="2" t="n">
         <v>30</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M14" s="2" t="n">
-        <f aca="false">L14/4</f>
         <v>4</v>
       </c>
       <c r="N14" s="2" t="n">
@@ -939,64 +937,51 @@
         <v>42</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.2</v>
+        <v>7.02</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>340</v>
+        <v>17.38</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>166.08</v>
+        <v>21.11</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="I15" s="2" t="n">
         <f aca="false">ROUND(D15*J15,0)</f>
-        <v>6</v>
+        <v>211</v>
       </c>
       <c r="J15" s="2" t="n">
         <v>30</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4</v>
+        <f aca="false">L15/4</f>
+        <v>50</v>
       </c>
       <c r="N15" s="2" t="n">
         <f aca="false">M15*2</f>
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I16" s="3" t="n">
-        <f aca="false">SUM(I2:I15)</f>
-        <v>786</v>
-      </c>
+      <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="3" t="n">
-        <f aca="false">SUM(M2:M15)</f>
-        <v>210</v>
-      </c>
-      <c r="N16" s="0" t="n">
-        <f aca="false">SUM(N2:N15)</f>
-        <v>420</v>
-      </c>
-      <c r="O16" s="0" t="n">
-        <f aca="false">SUM(O2:O15)</f>
-        <v>210</v>
-      </c>
+      <c r="M16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I17" s="3"/>
@@ -1074,13 +1059,6 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/MainTop/17.08.2024/ozon max/бирки.xlsx
+++ b/MainTop/17.08.2024/ozon max/бирки.xlsx
@@ -158,7 +158,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -183,8 +183,97 @@
       <family val="0"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,12 +282,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -206,8 +337,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -231,8 +377,59 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -241,23 +438,96 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Heading" xfId="20"/>
+    <cellStyle name="Heading 1" xfId="21"/>
+    <cellStyle name="Heading 2" xfId="22"/>
+    <cellStyle name="Text" xfId="23"/>
+    <cellStyle name="Note" xfId="24"/>
+    <cellStyle name="Footnote" xfId="25"/>
+    <cellStyle name="Hyperlink" xfId="26"/>
+    <cellStyle name="Status" xfId="27"/>
+    <cellStyle name="Good" xfId="28"/>
+    <cellStyle name="Neutral" xfId="29"/>
+    <cellStyle name="Bad" xfId="30"/>
+    <cellStyle name="Warning" xfId="31"/>
+    <cellStyle name="Error" xfId="32"/>
+    <cellStyle name="Accent" xfId="33"/>
+    <cellStyle name="Accent 1" xfId="34"/>
+    <cellStyle name="Accent 2" xfId="35"/>
+    <cellStyle name="Accent 3" xfId="36"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -266,10 +536,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
+      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -280,7 +550,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="4" style="0" width="9.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="15" style="0" width="9.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="18.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="16" style="0" width="9.32"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -977,88 +1248,10 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+      <c r="O16" s="0" t="n">
+        <f aca="false">SUM(O2:O15)</f>
+        <v>210</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
